--- a/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2023-08-10.xlsx
+++ b/data/raw/comptages_terrain/activites_loisirs/us_med_pnmcca_observatoire_comptage_terrain_activites_loisirs_2023-08-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12180" activeTab="5"/>
+    <workbookView windowWidth="18345" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="6" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>Promenade en mer</t>
   </si>
   <si>
-    <t>2 foil electrique</t>
+    <t>Autre :  foils electriques</t>
   </si>
 </sst>
 </file>
@@ -2689,8 +2689,8 @@
   <sheetPr/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2711,7 +2711,7 @@
     <col min="14" max="14" width="36.1142857142857" customWidth="1"/>
     <col min="15" max="15" width="33.5047619047619" customWidth="1"/>
     <col min="16" max="16" width="43.8952380952381" customWidth="1"/>
-    <col min="17" max="17" width="27.1333333333333" customWidth="1"/>
+    <col min="17" max="17" width="43.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="66" customHeight="1" spans="1:17">
@@ -2827,25 +2827,27 @@
       <c r="J3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="27"/>
     </row>
     <row r="4" ht="69.75" customHeight="1" spans="1:17">
       <c r="A4" s="12">
@@ -3073,7 +3075,7 @@
   <sheetPr/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
